--- a/Results/logs.xlsx
+++ b/Results/logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40B74B-5BAD-4623-9721-EE035631DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546C487-F64E-4C66-9C18-0F709017AC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="PlantVillage GCNN" sheetId="5" r:id="rId5"/>
     <sheet name="PlantVillage GRCNN" sheetId="6" r:id="rId6"/>
     <sheet name="4 models comparrison" sheetId="7" r:id="rId7"/>
+    <sheet name="CRNN(opt)" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">'4 models comparrison'!$A$3:$A$6</definedName>
@@ -28,10 +29,10 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>Dataset Technical Profile</t>
   </si>
@@ -474,6 +475,186 @@
   </si>
   <si>
     <t>Global attention mechanism (baseline performance).</t>
+  </si>
+  <si>
+    <t>Full Class-Wise Results</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Apple Scab</t>
+  </si>
+  <si>
+    <t>Apple Black Rot</t>
+  </si>
+  <si>
+    <t>Apple Cedar Rust</t>
+  </si>
+  <si>
+    <t>Apple Healthy</t>
+  </si>
+  <si>
+    <t>Blueberry Healthy</t>
+  </si>
+  <si>
+    <t>Cherry Powdery Mildew</t>
+  </si>
+  <si>
+    <t>Cherry Healthy</t>
+  </si>
+  <si>
+    <t>Corn Gray Leaf Spot</t>
+  </si>
+  <si>
+    <t>Corn Common Rust</t>
+  </si>
+  <si>
+    <t>Corn Northern Blight</t>
+  </si>
+  <si>
+    <t>Corn Healthy</t>
+  </si>
+  <si>
+    <t>Grape Black Rot</t>
+  </si>
+  <si>
+    <t>Grape Black Measles</t>
+  </si>
+  <si>
+    <t>Grape Leaf Blight</t>
+  </si>
+  <si>
+    <t>Grape Healthy</t>
+  </si>
+  <si>
+    <t>Orange Haunglongbing</t>
+  </si>
+  <si>
+    <t>Peach Bacterial Spot</t>
+  </si>
+  <si>
+    <t>Peach Healthy</t>
+  </si>
+  <si>
+    <t>Pepper Bell Bacterial Spot</t>
+  </si>
+  <si>
+    <t>Pepper Bell Healthy</t>
+  </si>
+  <si>
+    <t>Potato Early Blight</t>
+  </si>
+  <si>
+    <t>Potato Late Blight</t>
+  </si>
+  <si>
+    <t>Potato Healthy</t>
+  </si>
+  <si>
+    <t>Raspberry Healthy</t>
+  </si>
+  <si>
+    <t>Soybean Healthy</t>
+  </si>
+  <si>
+    <t>Squash Powdery Mildew</t>
+  </si>
+  <si>
+    <t>Strawberry Leaf Scorch</t>
+  </si>
+  <si>
+    <t>Strawberry Healthy</t>
+  </si>
+  <si>
+    <t>Tomato Bacterial Spot</t>
+  </si>
+  <si>
+    <t>Tomato Early Blight</t>
+  </si>
+  <si>
+    <t>Tomato Late Blight</t>
+  </si>
+  <si>
+    <t>Tomato Leaf Mold</t>
+  </si>
+  <si>
+    <t>Tomato Septoria Spot</t>
+  </si>
+  <si>
+    <t>Tomato Spider Mites</t>
+  </si>
+  <si>
+    <t>Tomato Target Spot</t>
+  </si>
+  <si>
+    <t>Tomato Yellow Leaf Curl</t>
+  </si>
+  <si>
+    <t>Tomato Mosaic Virus</t>
+  </si>
+  <si>
+    <t>Tomato Healthy</t>
+  </si>
+  <si>
+    <t>Training &amp; Validation History</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Train Acc</t>
+  </si>
+  <si>
+    <t>Train F1</t>
+  </si>
+  <si>
+    <t>Val Loss</t>
+  </si>
+  <si>
+    <t>Val Acc</t>
+  </si>
+  <si>
+    <t>Val F1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The overall percentage of correct predictions across all 8,147 test images.</t>
+  </si>
+  <si>
+    <t>Macro F1-Score</t>
+  </si>
+  <si>
+    <t>The average F1-score across all 38 classes (treats rare and common diseases equally).</t>
+  </si>
+  <si>
+    <t>Weighted F1-Score</t>
+  </si>
+  <si>
+    <t>The F1-score adjusted for the number of images in each class.</t>
+  </si>
+  <si>
+    <t>Total Test Samples</t>
+  </si>
+  <si>
+    <t>Total number of "unseen" images used for this final evaluation.</t>
+  </si>
+  <si>
+    <t>Final Test Metrics Summary</t>
   </si>
 </sst>
 </file>
@@ -7418,8 +7599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9859A-4B85-4EE8-83C5-75878261B779}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8017,7 +8198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238A6EA4-E7AC-4C6F-9608-68BAFA5BEDB2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -8215,4 +8396,1441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CCE5E0-CEF6-47EB-8530-9E8143D47634}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="71.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="O1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="1">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.6822999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.1769000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.9859</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E4" s="1">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.1309</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.0024</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.8448</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E6" s="1">
+        <v>254</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8147</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>222</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.92030000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>163</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.92720000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>131</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.93120000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E10" s="1">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.93489999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>179</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.9617</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.94479999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E12" s="1">
+        <v>137</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.9536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>189</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.9637</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.95069999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E14" s="1">
+        <v>163</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.95089999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E15" s="1">
+        <v>194</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>173</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.94140000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="1">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.95130000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>798</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.95520000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E19" s="1">
+        <v>348</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.7319</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E20" s="1">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.97960000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E21" s="1">
+        <v>173</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.96719999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E22" s="1">
+        <v>237</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.72629999999999995</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.7288</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.97309999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E23" s="1">
+        <v>144</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.9768</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.96909999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E24" s="1">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.98180000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E25" s="1">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.98240000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E26" s="1">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.98219999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E27" s="1">
+        <v>783</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E28" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E29" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E30" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E31" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E32" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E33" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E34" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E35" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E36" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E37" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E40" s="1">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B40">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C40">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D40">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H27">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/logs.xlsx
+++ b/Results/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546C487-F64E-4C66-9C18-0F709017AC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A8E20F-457D-46F3-B1A6-6DFF0C62E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -471,9 +471,6 @@
     <t>Effective spatial relationship modeling on graphs.</t>
   </si>
   <si>
-    <t>ViT (Baseline)</t>
-  </si>
-  <si>
     <t>Global attention mechanism (baseline performance).</t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>Final Test Metrics Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViT </t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1566,7 @@
                   <c:v>GCNN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ViT (Baseline)</c:v>
+                  <c:v>ViT </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1695,7 +1695,7 @@
                   <c:v>GCNN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ViT (Baseline)</c:v>
+                  <c:v>ViT </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7599,8 +7599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9859A-4B85-4EE8-83C5-75878261B779}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8199,7 +8199,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8346,7 +8346,7 @@
         <v>177.23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="H6" s="8">
         <v>0.77200000000000002</v>
@@ -8355,7 +8355,7 @@
         <v>0.68940000000000001</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8402,8 +8402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CCE5E0-CEF6-47EB-8530-9E8143D47634}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:E40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8429,14 +8429,14 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="G1" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -8445,7 +8445,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -8456,51 +8456,51 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1">
         <v>0.98</v>
@@ -8542,12 +8542,12 @@
         <v>0.9859</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1">
         <v>0.98</v>
@@ -8583,18 +8583,18 @@
         <v>0.8448</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P4" s="1">
         <v>0.98129999999999995</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -8630,18 +8630,18 @@
         <v>0.87849999999999995</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P5" s="1">
         <v>0.99</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1">
         <v>0.98</v>
@@ -8677,18 +8677,18 @@
         <v>0.90590000000000004</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P6" s="3">
         <v>8147</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1">
         <v>0.99</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1">
         <v>0.98</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1">
         <v>0.95</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1">
         <v>0.91</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1">
         <v>0.96</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="1">
         <v>0.99</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="1">
         <v>0.99</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="1">
         <v>0.98</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -9258,7 +9258,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="1">
         <v>0.97</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="1">
         <v>0.98</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="1">
         <v>0.97</v>
@@ -9410,7 +9410,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1">
         <v>0.98</v>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1">
         <v>0.99</v>
@@ -9486,7 +9486,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1">
         <v>0.99</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1">
         <v>0.99</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="1">
         <v>0.97</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="1">
         <v>0.97</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="1">
         <v>0.99</v>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="1">
         <v>0.95</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="1">
         <v>0.98</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="1">
         <v>0.96</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="1">
         <v>0.97</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="1">
         <v>0.98</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="1">
         <v>0.98</v>

--- a/Results/logs.xlsx
+++ b/Results/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A8E20F-457D-46F3-B1A6-6DFF0C62E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF526FE9-8083-44A5-AEE2-4B44B6A721B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -8198,8 +8198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238A6EA4-E7AC-4C6F-9608-68BAFA5BEDB2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8402,8 +8402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CCE5E0-CEF6-47EB-8530-9E8143D47634}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results/logs.xlsx
+++ b/Results/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF526FE9-8083-44A5-AEE2-4B44B6A721B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFFEC68-44BE-4147-8081-33759EF79635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -5235,7 +5235,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results/logs.xlsx
+++ b/Results/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFFEC68-44BE-4147-8081-33759EF79635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9794D178-7D17-46D2-A039-CBA63D2E3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="PlantVillage GCNN" sheetId="5" r:id="rId5"/>
     <sheet name="PlantVillage GRCNN" sheetId="6" r:id="rId6"/>
     <sheet name="4 models comparrison" sheetId="7" r:id="rId7"/>
-    <sheet name="CRNN(opt)" sheetId="8" r:id="rId8"/>
+    <sheet name="history " sheetId="9" r:id="rId8"/>
+    <sheet name="CRNN(opt)" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">'4 models comparrison'!$A$3:$A$6</definedName>
@@ -29,10 +30,10 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="228">
   <si>
     <t>Dataset Technical Profile</t>
   </si>
@@ -655,6 +656,78 @@
   </si>
   <si>
     <t xml:space="preserve">ViT </t>
+  </si>
+  <si>
+    <t>Project Timeline: Phyto-Pathology Diagnostics</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Work Performed</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Research &amp; EDA</t>
+  </si>
+  <si>
+    <t>Literature review of 2025 SOTA papers; Dataset exploration (PlantVillage); Initial data cleaning and grayscale conversion.</t>
+  </si>
+  <si>
+    <t>Baseline 1: ViT</t>
+  </si>
+  <si>
+    <t>Implementing the Vision Transformer baseline; Realizing the high computational cost (554s/epoch) vs. accuracy trade-off.</t>
+  </si>
+  <si>
+    <t>Baseline 2: CRNN</t>
+  </si>
+  <si>
+    <t>Developing the initial CRNN; Integrating CNN for spatial features and LSTM for sequential leaf pattern recognition.</t>
+  </si>
+  <si>
+    <t>Graph Modeling</t>
+  </si>
+  <si>
+    <t>Setting up the non-Euclidean graph structures; Implementing GCNN and GRCNN for comparative analysis.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Comparative Testing</t>
+  </si>
+  <si>
+    <t>Running all four models on the same validation set; Generating the "Consolidated Performance Table" to identify the CRNN as the winner.</t>
+  </si>
+  <si>
+    <t>Optimization (Optuna)</t>
+  </si>
+  <si>
+    <t>Running Bayesian Search on the CRNN; Tuning conv-blocks, filters, and dropout rates to reach 98.59% accuracy.</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Exporting the model and setting up the Hugging Face Spaces demo; Writing the classification logic for real-time testing.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Finalizing the project report; Compiling 2025 references; Exporting training logs to Excel.</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Recording the demo video; Finalizing the PPT slides; Submitting the project via email to Sir Talha Nadeem.</t>
   </si>
 </sst>
 </file>
@@ -8198,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238A6EA4-E7AC-4C6F-9608-68BAFA5BEDB2}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8399,6 +8472,132 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBE4735-F46F-4918-B984-853A4C35161D}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CCE5E0-CEF6-47EB-8530-9E8143D47634}">
   <dimension ref="A1:R40"/>
   <sheetViews>
